--- a/病院用03_受診者一覧画面_エビデンス.xlsx
+++ b/病院用03_受診者一覧画面_エビデンス.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d800a10fdc61dec0/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1082" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D550AB8D-8C3E-43EF-9B07-CA5C4A3367D3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE599F1-45EC-468F-99B4-C369C79753E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="701" xr2:uid="{40BD3F05-1583-483D-916D-49B5A9F9D35B}"/>
   </bookViews>
@@ -6347,10 +6347,10 @@
         <v>5</v>
       </c>
       <c r="I40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="K40" s="7">
         <v>28</v>
@@ -6370,10 +6370,10 @@
         <v>58</v>
       </c>
       <c r="I41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="K41" s="7">
         <v>33</v>
@@ -6393,10 +6393,10 @@
         <v>58</v>
       </c>
       <c r="I42" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="K42" s="7">
         <v>19</v>
@@ -6416,10 +6416,10 @@
         <v>58</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="K43" s="7">
         <v>44</v>
@@ -6439,10 +6439,10 @@
         <v>58</v>
       </c>
       <c r="I44" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="K44" s="7">
         <v>61</v>
@@ -6462,10 +6462,10 @@
         <v>58</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="K45" s="7">
         <v>51</v>
@@ -6485,10 +6485,10 @@
         <v>58</v>
       </c>
       <c r="I46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="K46" s="7">
         <v>32</v>
@@ -6508,10 +6508,10 @@
         <v>58</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="K47" s="7">
         <v>29</v>
@@ -6531,10 +6531,10 @@
         <v>58</v>
       </c>
       <c r="I48" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="K48" s="7">
         <v>48</v>
@@ -6554,10 +6554,10 @@
         <v>58</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J49" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="K49" s="7">
         <v>36</v>
@@ -6577,10 +6577,10 @@
         <v>58</v>
       </c>
       <c r="I50" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="K50" s="7">
         <v>48</v>
@@ -6997,10 +6997,10 @@
         <v>5</v>
       </c>
       <c r="I73" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="K73" s="7">
         <v>28</v>
@@ -7020,10 +7020,10 @@
         <v>58</v>
       </c>
       <c r="I74" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J74" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="K74" s="7">
         <v>33</v>
@@ -7044,10 +7044,10 @@
         <v>58</v>
       </c>
       <c r="I75" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J75" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="K75" s="7">
         <v>19</v>
@@ -7067,10 +7067,10 @@
         <v>58</v>
       </c>
       <c r="I76" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J76" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="K76" s="7">
         <v>44</v>
@@ -7090,10 +7090,10 @@
         <v>58</v>
       </c>
       <c r="I77" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J77" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="K77" s="7">
         <v>61</v>
@@ -7113,10 +7113,10 @@
         <v>58</v>
       </c>
       <c r="I78" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J78" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="K78" s="7">
         <v>51</v>
@@ -7136,10 +7136,10 @@
         <v>58</v>
       </c>
       <c r="I79" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J79" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="K79" s="7">
         <v>32</v>
@@ -7159,10 +7159,10 @@
         <v>58</v>
       </c>
       <c r="I80" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J80" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="K80" s="7">
         <v>29</v>
@@ -7182,10 +7182,10 @@
         <v>58</v>
       </c>
       <c r="I81" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J81" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="K81" s="7">
         <v>48</v>
@@ -7205,10 +7205,10 @@
         <v>58</v>
       </c>
       <c r="I82" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="K82" s="7">
         <v>36</v>
@@ -7228,10 +7228,10 @@
         <v>58</v>
       </c>
       <c r="I83" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J83" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="K83" s="7">
         <v>48</v>
@@ -7251,10 +7251,10 @@
         <v>58</v>
       </c>
       <c r="I84" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J84" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K84" s="7">
         <v>42</v>
@@ -7274,10 +7274,10 @@
         <v>58</v>
       </c>
       <c r="I85" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J85" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="K85" s="7">
         <v>28</v>
@@ -7297,10 +7297,10 @@
         <v>58</v>
       </c>
       <c r="I86" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J86" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K86" s="7">
         <v>54</v>
@@ -7320,10 +7320,10 @@
         <v>58</v>
       </c>
       <c r="I87" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J87" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="K87" s="7">
         <v>48</v>
@@ -7343,10 +7343,10 @@
         <v>58</v>
       </c>
       <c r="I88" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J88" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K88" s="7">
         <v>36</v>
@@ -7366,10 +7366,10 @@
         <v>58</v>
       </c>
       <c r="I89" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J89" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K89" s="7">
         <v>45</v>
@@ -7389,10 +7389,10 @@
         <v>58</v>
       </c>
       <c r="I90" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J90" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="K90" s="7">
         <v>61</v>
@@ -7412,10 +7412,10 @@
         <v>58</v>
       </c>
       <c r="I91" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J91" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="K91" s="7">
         <v>57</v>
@@ -7435,10 +7435,10 @@
         <v>58</v>
       </c>
       <c r="I92" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="K92" s="7">
         <v>31</v>
@@ -7458,10 +7458,10 @@
         <v>58</v>
       </c>
       <c r="I93" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="K93" s="7">
         <v>44</v>
@@ -8138,10 +8138,10 @@
         <v>5</v>
       </c>
       <c r="I123" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J123" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="K123" s="7">
         <v>28</v>
@@ -8161,10 +8161,10 @@
         <v>58</v>
       </c>
       <c r="I124" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J124" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="K124" s="7">
         <v>33</v>
@@ -8185,10 +8185,10 @@
         <v>58</v>
       </c>
       <c r="I125" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J125" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="K125" s="7">
         <v>19</v>
@@ -8208,10 +8208,10 @@
         <v>58</v>
       </c>
       <c r="I126" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J126" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="J126" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="K126" s="7">
         <v>44</v>
@@ -8231,10 +8231,10 @@
         <v>58</v>
       </c>
       <c r="I127" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J127" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="K127" s="7">
         <v>61</v>
@@ -8254,10 +8254,10 @@
         <v>58</v>
       </c>
       <c r="I128" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J128" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="K128" s="7">
         <v>51</v>
@@ -8277,10 +8277,10 @@
         <v>58</v>
       </c>
       <c r="I129" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J129" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="J129" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="K129" s="7">
         <v>32</v>
@@ -8300,10 +8300,10 @@
         <v>58</v>
       </c>
       <c r="I130" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J130" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="K130" s="7">
         <v>29</v>
@@ -8323,10 +8323,10 @@
         <v>58</v>
       </c>
       <c r="I131" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J131" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="J131" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="K131" s="7">
         <v>48</v>
@@ -8346,10 +8346,10 @@
         <v>58</v>
       </c>
       <c r="I132" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J132" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="K132" s="7">
         <v>36</v>
@@ -8369,10 +8369,10 @@
         <v>58</v>
       </c>
       <c r="I133" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J133" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="K133" s="7">
         <v>48</v>
@@ -8392,10 +8392,10 @@
         <v>58</v>
       </c>
       <c r="I134" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J134" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K134" s="7">
         <v>42</v>
@@ -8415,10 +8415,10 @@
         <v>58</v>
       </c>
       <c r="I135" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J135" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="J135" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="K135" s="7">
         <v>28</v>
@@ -8438,10 +8438,10 @@
         <v>58</v>
       </c>
       <c r="I136" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J136" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="J136" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K136" s="7">
         <v>54</v>
@@ -8461,10 +8461,10 @@
         <v>58</v>
       </c>
       <c r="I137" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J137" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="J137" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="K137" s="7">
         <v>48</v>
@@ -8484,10 +8484,10 @@
         <v>58</v>
       </c>
       <c r="I138" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J138" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="J138" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K138" s="7">
         <v>36</v>
@@ -8507,10 +8507,10 @@
         <v>58</v>
       </c>
       <c r="I139" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J139" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="J139" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K139" s="7">
         <v>45</v>
@@ -8530,10 +8530,10 @@
         <v>58</v>
       </c>
       <c r="I140" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J140" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="J140" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="K140" s="7">
         <v>61</v>
@@ -8553,10 +8553,10 @@
         <v>58</v>
       </c>
       <c r="I141" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J141" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="J141" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="K141" s="7">
         <v>57</v>
@@ -8576,10 +8576,10 @@
         <v>58</v>
       </c>
       <c r="I142" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J142" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="J142" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="K142" s="7">
         <v>31</v>
@@ -8599,10 +8599,10 @@
         <v>58</v>
       </c>
       <c r="I143" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J143" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="J143" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="K143" s="7">
         <v>44</v>
@@ -8622,10 +8622,10 @@
         <v>58</v>
       </c>
       <c r="I144" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J144" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="J144" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="K144" s="7">
         <v>30</v>
@@ -8645,10 +8645,10 @@
         <v>58</v>
       </c>
       <c r="I145" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J145" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="J145" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="K145" s="7">
         <v>29</v>
@@ -8668,10 +8668,10 @@
         <v>58</v>
       </c>
       <c r="I146" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J146" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="J146" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="K146" s="7">
         <v>52</v>
@@ -8691,10 +8691,10 @@
         <v>58</v>
       </c>
       <c r="I147" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J147" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="J147" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="K147" s="7">
         <v>18</v>
@@ -8714,10 +8714,10 @@
         <v>58</v>
       </c>
       <c r="I148" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J148" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="J148" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="K148" s="7">
         <v>26</v>
@@ -8737,10 +8737,10 @@
         <v>58</v>
       </c>
       <c r="I149" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J149" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="J149" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="K149" s="7">
         <v>38</v>
@@ -8760,10 +8760,10 @@
         <v>58</v>
       </c>
       <c r="I150" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J150" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="J150" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="K150" s="7">
         <v>17</v>
@@ -8783,10 +8783,10 @@
         <v>58</v>
       </c>
       <c r="I151" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J151" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="J151" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="K151" s="7">
         <v>21</v>
@@ -8806,10 +8806,10 @@
         <v>58</v>
       </c>
       <c r="I152" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J152" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="J152" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="K152" s="7">
         <v>47</v>
@@ -8829,10 +8829,10 @@
         <v>58</v>
       </c>
       <c r="I153" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J153" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="J153" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="K153" s="7">
         <v>30</v>
@@ -9781,10 +9781,10 @@
         <v>58</v>
       </c>
       <c r="I400" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="J400" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="J400" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="K400" s="7">
         <v>39</v>
@@ -10177,10 +10177,10 @@
         <v>5</v>
       </c>
       <c r="I101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J101" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="K101" s="7">
         <v>28</v>
@@ -10200,10 +10200,10 @@
         <v>58</v>
       </c>
       <c r="I102" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J102" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="K102" s="7">
         <v>33</v>
@@ -10223,10 +10223,10 @@
         <v>58</v>
       </c>
       <c r="I103" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J103" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="K103" s="7">
         <v>19</v>
@@ -10246,10 +10246,10 @@
         <v>58</v>
       </c>
       <c r="I104" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J104" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="K104" s="7">
         <v>44</v>
@@ -10269,10 +10269,10 @@
         <v>58</v>
       </c>
       <c r="I105" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J105" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="K105" s="7">
         <v>61</v>
@@ -10292,10 +10292,10 @@
         <v>58</v>
       </c>
       <c r="I106" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J106" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="K106" s="7">
         <v>51</v>
@@ -10316,10 +10316,10 @@
         <v>58</v>
       </c>
       <c r="I107" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J107" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="K107" s="7">
         <v>32</v>
@@ -10339,10 +10339,10 @@
         <v>58</v>
       </c>
       <c r="I108" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J108" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="K108" s="7">
         <v>29</v>
@@ -10362,10 +10362,10 @@
         <v>58</v>
       </c>
       <c r="I109" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J109" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="K109" s="7">
         <v>48</v>
@@ -10385,10 +10385,10 @@
         <v>58</v>
       </c>
       <c r="I110" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J110" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="K110" s="7">
         <v>36</v>
@@ -10408,10 +10408,10 @@
         <v>58</v>
       </c>
       <c r="I111" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J111" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="J111" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="K111" s="7">
         <v>48</v>
@@ -11520,10 +11520,10 @@
         <v>58</v>
       </c>
       <c r="I373" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J373" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="J373" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="K373" s="7">
         <v>19</v>
@@ -11638,12 +11638,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C7:E7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11784,10 +11784,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="E4" s="7">
         <v>28</v>
@@ -11831,10 +11831,10 @@
         <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="E5" s="7">
         <v>33</v>
@@ -11878,10 +11878,10 @@
         <v>58</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E6" s="7">
         <v>19</v>
@@ -11925,10 +11925,10 @@
         <v>58</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="E7" s="7">
         <v>44</v>
@@ -11972,10 +11972,10 @@
         <v>58</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E8" s="7">
         <v>61</v>
@@ -12019,10 +12019,10 @@
         <v>58</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="E9" s="7">
         <v>51</v>
@@ -12066,10 +12066,10 @@
         <v>58</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="E10" s="7">
         <v>32</v>
@@ -12113,10 +12113,10 @@
         <v>58</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="E11" s="7">
         <v>29</v>
@@ -12160,10 +12160,10 @@
         <v>58</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="E12" s="7">
         <v>48</v>
@@ -12207,10 +12207,10 @@
         <v>58</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="E13" s="7">
         <v>36</v>
@@ -12254,10 +12254,10 @@
         <v>58</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="E14" s="7">
         <v>48</v>
@@ -12301,10 +12301,10 @@
         <v>58</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="E15" s="7">
         <v>42</v>
@@ -12348,10 +12348,10 @@
         <v>58</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="E16" s="7">
         <v>28</v>
@@ -12395,10 +12395,10 @@
         <v>58</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="E17" s="7">
         <v>54</v>
@@ -12442,10 +12442,10 @@
         <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="E18" s="7">
         <v>48</v>
@@ -12489,10 +12489,10 @@
         <v>58</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="E19" s="7">
         <v>36</v>
@@ -12536,10 +12536,10 @@
         <v>58</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="E20" s="7">
         <v>45</v>
@@ -12583,10 +12583,10 @@
         <v>58</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="E21" s="7">
         <v>61</v>
@@ -12630,10 +12630,10 @@
         <v>58</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="E22" s="7">
         <v>57</v>
@@ -12677,10 +12677,10 @@
         <v>58</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="E23" s="7">
         <v>31</v>
@@ -12724,10 +12724,10 @@
         <v>58</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E24" s="7">
         <v>44</v>
@@ -12771,10 +12771,10 @@
         <v>58</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="E25" s="7">
         <v>30</v>
@@ -12818,10 +12818,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="E26" s="7">
         <v>29</v>
@@ -12865,10 +12865,10 @@
         <v>58</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="E27" s="7">
         <v>52</v>
@@ -12912,10 +12912,10 @@
         <v>58</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="E28" s="7">
         <v>18</v>
@@ -12959,10 +12959,10 @@
         <v>58</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="E29" s="7">
         <v>26</v>
@@ -13006,10 +13006,10 @@
         <v>58</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="E30" s="7">
         <v>38</v>
@@ -13053,10 +13053,10 @@
         <v>58</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="E31" s="7">
         <v>17</v>
@@ -13100,10 +13100,10 @@
         <v>58</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="E32" s="7">
         <v>21</v>
@@ -13147,10 +13147,10 @@
         <v>58</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="E33" s="7">
         <v>47</v>
@@ -13194,10 +13194,10 @@
         <v>58</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="E34" s="7">
         <v>30</v>
@@ -13241,10 +13241,10 @@
         <v>58</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="E35" s="7">
         <v>59</v>
@@ -13288,10 +13288,10 @@
         <v>58</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="E36" s="7">
         <v>17</v>
@@ -13335,10 +13335,10 @@
         <v>58</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="E37" s="7">
         <v>47</v>
@@ -13382,10 +13382,10 @@
         <v>58</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="E38" s="7">
         <v>53</v>
@@ -13429,10 +13429,10 @@
         <v>58</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="E39" s="7">
         <v>54</v>
@@ -13476,10 +13476,10 @@
         <v>58</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="E40" s="7">
         <v>39</v>
@@ -13523,10 +13523,10 @@
         <v>58</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="E41" s="7">
         <v>14</v>
@@ -13570,10 +13570,10 @@
         <v>58</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="E42" s="7">
         <v>16</v>
@@ -13617,10 +13617,10 @@
         <v>58</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="E43" s="7">
         <v>40</v>
@@ -13664,10 +13664,10 @@
         <v>58</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="E44" s="7">
         <v>43</v>
@@ -13711,10 +13711,10 @@
         <v>58</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="E45" s="7">
         <v>28</v>
@@ -13758,10 +13758,10 @@
         <v>58</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="E46" s="7">
         <v>53</v>
@@ -13805,10 +13805,10 @@
         <v>58</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="E47" s="7">
         <v>16</v>
@@ -13852,10 +13852,10 @@
         <v>58</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="E48" s="7">
         <v>37</v>
@@ -13899,10 +13899,10 @@
         <v>58</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="E49" s="7">
         <v>35</v>
@@ -13946,10 +13946,10 @@
         <v>58</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="E50" s="7">
         <v>27</v>
@@ -13993,10 +13993,10 @@
         <v>58</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="E51" s="7">
         <v>24</v>
@@ -14040,10 +14040,10 @@
         <v>58</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="E52" s="7">
         <v>33</v>
@@ -14087,10 +14087,10 @@
         <v>58</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="E53" s="7">
         <v>50</v>
@@ -14134,10 +14134,10 @@
         <v>58</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="E54" s="7">
         <v>52</v>
@@ -14181,10 +14181,10 @@
         <v>58</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="E55" s="7">
         <v>48</v>
@@ -14228,10 +14228,10 @@
         <v>58</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="E56" s="7">
         <v>43</v>
@@ -14275,10 +14275,10 @@
         <v>58</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="E57" s="7">
         <v>37</v>
@@ -14322,10 +14322,10 @@
         <v>58</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="E58" s="7">
         <v>36</v>
@@ -14369,10 +14369,10 @@
         <v>58</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="E59" s="7">
         <v>29</v>
@@ -14416,10 +14416,10 @@
         <v>58</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="E60" s="7">
         <v>28</v>
@@ -14463,10 +14463,10 @@
         <v>58</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="E61" s="7">
         <v>26</v>
@@ -14510,10 +14510,10 @@
         <v>58</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="E62" s="7">
         <v>22</v>
@@ -14557,10 +14557,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="E63" s="7">
         <v>29</v>
@@ -14604,10 +14604,10 @@
         <v>58</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="E64" s="7">
         <v>27</v>
@@ -14651,10 +14651,10 @@
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="E65" s="7">
         <v>37</v>
@@ -14698,10 +14698,10 @@
         <v>58</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="E66" s="7">
         <v>35</v>
@@ -14745,10 +14745,10 @@
         <v>58</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="E67" s="7">
         <v>34</v>
@@ -14792,10 +14792,10 @@
         <v>58</v>
       </c>
       <c r="C68" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="E68" s="7">
         <v>36</v>
@@ -14839,10 +14839,10 @@
         <v>58</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="E69" s="7">
         <v>33</v>
@@ -14886,10 +14886,10 @@
         <v>58</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="E70" s="7">
         <v>37</v>
@@ -14933,10 +14933,10 @@
         <v>58</v>
       </c>
       <c r="C71" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="E71" s="7">
         <v>33</v>
@@ -14980,10 +14980,10 @@
         <v>58</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="E72" s="7">
         <v>31</v>
@@ -15027,10 +15027,10 @@
         <v>58</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="E73" s="7">
         <v>30</v>
@@ -15074,10 +15074,10 @@
         <v>58</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="E74" s="7">
         <v>20</v>
@@ -15121,10 +15121,10 @@
         <v>58</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="E75" s="7">
         <v>28</v>
@@ -15168,10 +15168,10 @@
         <v>58</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="E76" s="7">
         <v>25</v>
@@ -15215,10 +15215,10 @@
         <v>58</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="E77" s="7">
         <v>21</v>
@@ -15262,10 +15262,10 @@
         <v>58</v>
       </c>
       <c r="C78" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="E78" s="7">
         <v>20</v>
@@ -15309,10 +15309,10 @@
         <v>58</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="E79" s="7">
         <v>29</v>
@@ -15356,10 +15356,10 @@
         <v>58</v>
       </c>
       <c r="C80" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="E80" s="7">
         <v>28</v>
@@ -15403,10 +15403,10 @@
         <v>58</v>
       </c>
       <c r="C81" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="E81" s="7">
         <v>26</v>
@@ -15450,10 +15450,10 @@
         <v>58</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="E82" s="7">
         <v>41</v>
@@ -15497,10 +15497,10 @@
         <v>58</v>
       </c>
       <c r="C83" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="E83" s="7">
         <v>47</v>
@@ -15544,10 +15544,10 @@
         <v>58</v>
       </c>
       <c r="C84" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="E84" s="7">
         <v>40</v>
@@ -15591,10 +15591,10 @@
         <v>58</v>
       </c>
       <c r="C85" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="E85" s="7">
         <v>41</v>
@@ -15638,10 +15638,10 @@
         <v>58</v>
       </c>
       <c r="C86" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="E86" s="7">
         <v>44</v>
@@ -15685,10 +15685,10 @@
         <v>58</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="E87" s="7">
         <v>41</v>
@@ -15732,10 +15732,10 @@
         <v>58</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="E88" s="7">
         <v>44</v>
@@ -15779,10 +15779,10 @@
         <v>58</v>
       </c>
       <c r="C89" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="E89" s="7">
         <v>49</v>
@@ -15826,10 +15826,10 @@
         <v>58</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="E90" s="7">
         <v>41</v>
@@ -15873,10 +15873,10 @@
         <v>58</v>
       </c>
       <c r="C91" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="E91" s="7">
         <v>49</v>
@@ -15920,10 +15920,10 @@
         <v>58</v>
       </c>
       <c r="C92" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="E92" s="7">
         <v>48</v>
@@ -15967,10 +15967,10 @@
         <v>58</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="E93" s="7">
         <v>47</v>
@@ -16014,10 +16014,10 @@
         <v>58</v>
       </c>
       <c r="C94" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="E94" s="7">
         <v>42</v>
@@ -16061,10 +16061,10 @@
         <v>58</v>
       </c>
       <c r="C95" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="E95" s="7">
         <v>43</v>
@@ -16108,10 +16108,10 @@
         <v>58</v>
       </c>
       <c r="C96" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="E96" s="7">
         <v>46</v>
@@ -16155,10 +16155,10 @@
         <v>58</v>
       </c>
       <c r="C97" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="E97" s="7">
         <v>47</v>
@@ -16202,10 +16202,10 @@
         <v>58</v>
       </c>
       <c r="C98" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="E98" s="7">
         <v>44</v>
@@ -16249,10 +16249,10 @@
         <v>58</v>
       </c>
       <c r="C99" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="E99" s="7">
         <v>50</v>
@@ -16296,10 +16296,10 @@
         <v>58</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="E100" s="7">
         <v>55</v>
@@ -16343,10 +16343,10 @@
         <v>58</v>
       </c>
       <c r="C101" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="E101" s="7">
         <v>56</v>
@@ -16390,10 +16390,10 @@
         <v>58</v>
       </c>
       <c r="C102" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="E102" s="7">
         <v>51</v>
@@ -16437,10 +16437,10 @@
         <v>58</v>
       </c>
       <c r="C103" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="E103" s="7">
         <v>57</v>
@@ -16484,10 +16484,10 @@
         <v>58</v>
       </c>
       <c r="C104" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="E104" s="7">
         <v>50</v>
@@ -16531,10 +16531,10 @@
         <v>58</v>
       </c>
       <c r="C105" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="E105" s="7">
         <v>53</v>
@@ -16578,10 +16578,10 @@
         <v>58</v>
       </c>
       <c r="C106" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="E106" s="7">
         <v>50</v>
@@ -16625,10 +16625,10 @@
         <v>58</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="E107" s="7">
         <v>58</v>
@@ -16672,10 +16672,10 @@
         <v>58</v>
       </c>
       <c r="C108" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="E108" s="7">
         <v>55</v>
@@ -16719,10 +16719,10 @@
         <v>58</v>
       </c>
       <c r="C109" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="E109" s="7">
         <v>21</v>
@@ -16766,10 +16766,10 @@
         <v>58</v>
       </c>
       <c r="C110" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="E110" s="7">
         <v>22</v>
@@ -16813,10 +16813,10 @@
         <v>58</v>
       </c>
       <c r="C111" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="E111" s="7">
         <v>25</v>
@@ -16860,10 +16860,10 @@
         <v>58</v>
       </c>
       <c r="C112" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="E112" s="7">
         <v>29</v>
@@ -16907,10 +16907,10 @@
         <v>58</v>
       </c>
       <c r="C113" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="E113" s="7">
         <v>28</v>
@@ -16954,10 +16954,10 @@
         <v>58</v>
       </c>
       <c r="C114" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="E114" s="7">
         <v>27</v>
@@ -17001,10 +17001,10 @@
         <v>58</v>
       </c>
       <c r="C115" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="E115" s="7">
         <v>29</v>
@@ -17048,10 +17048,10 @@
         <v>58</v>
       </c>
       <c r="C116" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="E116" s="7">
         <v>25</v>
@@ -17095,10 +17095,10 @@
         <v>58</v>
       </c>
       <c r="C117" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="E117" s="7">
         <v>22</v>
@@ -17142,10 +17142,10 @@
         <v>58</v>
       </c>
       <c r="C118" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="E118" s="7">
         <v>25</v>
@@ -17189,10 +17189,10 @@
         <v>58</v>
       </c>
       <c r="C119" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="E119" s="7">
         <v>29</v>
@@ -17236,10 +17236,10 @@
         <v>58</v>
       </c>
       <c r="C120" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="E120" s="7">
         <v>20</v>
@@ -17283,10 +17283,10 @@
         <v>58</v>
       </c>
       <c r="C121" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="E121" s="7">
         <v>23</v>
@@ -17330,10 +17330,10 @@
         <v>58</v>
       </c>
       <c r="C122" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="E122" s="7">
         <v>21</v>
@@ -17377,10 +17377,10 @@
         <v>58</v>
       </c>
       <c r="C123" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="E123" s="7">
         <v>20</v>
@@ -17424,10 +17424,10 @@
         <v>58</v>
       </c>
       <c r="C124" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="E124" s="7">
         <v>36</v>
@@ -17471,10 +17471,10 @@
         <v>58</v>
       </c>
       <c r="C125" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="E125" s="7">
         <v>39</v>
@@ -17518,10 +17518,10 @@
         <v>58</v>
       </c>
       <c r="C126" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D126" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="E126" s="7">
         <v>35</v>
